--- a/Formatos/Articulos.xlsx
+++ b/Formatos/Articulos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando.Castrillon\PycharmProjects\pythonProject\Alcaldia\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516472DE-A91B-42E4-B63B-3E58B79F99E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EB2742-9EE4-4ED6-93BE-CF4E1B15BCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Articulo</t>
   </si>
@@ -220,6 +220,24 @@
       </rPr>
       <t xml:space="preserve"> Son las áreas y corredores donde se quiere mantener o promover la mayor diversificación y mezcla de usos, en virtud de su esencial importancia en la consolidación del modelo de ordenamiento del territorio en lo referente a la plataforma de competitividad, conformadas por el corredor del río y los ejes estructurantes. Se establecen como corredores de actividad múltiple la troncal occidental y la troncal central.                                                                                                                                                                                                                            1. Los Centros urbanos de crecimiento. Se busca promover el desarrollo de actividades que sean compatibles con el uso residencial. Igualmente, se busca cualificar espacial y ambientalmente la periferia de estos centros controlando los procesos de deterioro que se presentan en algunas de las zonas, condicionándolas a reglamentaciones de manejo ambiental, protección del espacio público, control de accesibilidad, y cargue y descargue.                                                                                                                                      2. Los corredores de actividad múltiple. Entiéndase como tal aquella vía a largo de la cual se desplaza el transporte publico y privado en alto grado de intensidad vehicular, interconectándose sectores y/o núcleos de atracción peatonal y haciendo las veces de vía integradora entre estos y que por lo general atraen la ubicación de diversas actividades en los lotes y edificaciones localizados en sus costados, generando ejes estructurantes. Se propone como corredores de actividad múltiple los siguientes:                                                                                                                                                                                     1. Autopista Medellín-Bogota: Faja de 100 Mts Hacia ambos costados, Medidos a partir del separador de la doble calzada.                                                                                                                                                                                                                                                                                                           2. Autopista Norte: Faja de 100 Mts Hacia ambos costados Medido a partir del eje de la Autopista Norte.                                                                                                                                                                                                                                                                                                                                                3. Carrera 69: Desde el barrio Machado hasta el barrio la Misericordia, sector Convento de las Clarisas. Una faja de 30 Mts hacia ambos costados.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                           4. Calle 50: Desde el Barrio San Juan hasta Metromezclas. Una faja de 30 Mts hacia ambos costados.                                                                                                                                                                                                                                                                                                                                                        5. Circunvalar y vía perimetral propuestas en este P.B.O.T. Una faja de 50 Mts hacia ambos costados.</t>
     </r>
+  </si>
+  <si>
+    <t>Articulo 16</t>
+  </si>
+  <si>
+    <t>Articulo 70</t>
+  </si>
+  <si>
+    <t>ARTÍCULO 16º. Del manejo de los retiros a corrientes naturales de agua.                                                                                                                                                                                                                                                                          1. Los retiros a corrientes de agua a los que se refiere la clasificación del suelo y el plano retiros a corrientes naturales de agua son suelo de protección. Deben engramarse, arborizarse y permanecer libres de cualquier tipo de construcción, de aquellos procesos o actividades que deterioren o limiten su condición natural y de cerramientos no transparentes que impidan su disfrute visual, acondicionándolos como áreas de recreación pasiva y de preservación ambiental, o integrándolos como elemento urbanístico importante a las otras áreas verdes próximas.                                                                                             2. En suelos rurales y suburbanos los retiros a corrientes naturales de agua se tratarán y reforestarán con vegetación nativa. En el suelo urbano se tendrán en cuenta las especies apropiadas para estas áreas.                                                                                                                                                                                                                                                                                                                                                                                                                     3. Todo proyecto deberá garantizar que con sus acciones no contribuya a la disminución del rendimiento hidrológico de los cuerpos de agua y que no genere contaminación con vertimientos de aguas residuales o residuos sólidos, escombros o volúmenes de tierra. Igualmente se impedirá la tala de bosques protectores existentes, de manera que no causen la disminución del tiempo de concentración de las aguas de escorrentía, de forma que evite inundaciones.                                                                                                                                                                                                                                                                                                              4. Las tierras y escombros resultantes de los trabajos efectuados para los procesos de urbanización y de construcción, no podrán ser vertidos en los taludes o en los cauces y fajas de retiro de quebradas, arroyos, caños, manantiales o escurrideros naturales de flujo no continuo.                                                                                                                                                                                                                                                                                5. Sobre las fajas de retiros de quebradas se prohíben el cambio de zona verde por piso duro y la construcción o instalación de parqueaderos, kioscos, casetas, piscinas, antenas parabólicas, placas o zonas deportivas, zonas de depósitos, 12 tanques de almacenamiento de gas e instalaciones similares, sótanos y semisótanos.                                                                                                                                                                                   6. Estas fajas estarán constituidas, como mínimo por los diez (10) primeros metros horizontales tomados desde el borde superior del canal natural. Se podrán constituir las servidumbres a favor del Municipio de Copacabana para la conservación y mantenimiento de las corrientes de agua y no se podrán incluir dentro del cerramiento.                                                                                                                                                         7. En los retiros a las corrientes naturales de agua de los desarrollos urbanísticos y constructivos podrán constituirse servidumbres a favor de la entidad que preste los servicios públicos para la conducción de redes o el mantenimiento de estas y del cauce.                                                                                                                                                                                                                                                                                            PARÁGRAFO 1º. Se podrán requerir obras de protección complementarias a las fajas de retiros de las quebradas, si las características de los cauces, hidrodinámica de las corrientes de agua e inestabilidad de los terrenos aledaños así lo ameritan.                                                                                                                                                                                                                                                                                                                                       PARÁGRAFO 2º. En los retiros de las corrientes de agua que se encuentren invadidos por construcciones, prevalecerá el criterio de seguridad, garantizando que las viviendas no estén abocadas al riesgo hidrológico. Se podrán ejecutar obras de prevención de desastres y mitigación de la amenaza hidrológica, siempre y cuando estas obras obedezcan a un manejo integral de la microcuenca o al plan integral de ordenamiento y manejo de la misma. Es de anotar que las construcciones que queden a menos de diez (10) metros de la estructura hidráulica no deberán ser legalizadas, al igual que las localizadas sobre estas estructuras.</t>
+  </si>
+  <si>
+    <t>ARTÍCULO 70º. De los retiros a corrientes naturales de agua.                                                                                                                                                                                                                                                                                                               1. Se entiende por zona de retiro una faja lateral de terreno paralela a las líneas de máxima inundación o a los bordes del canal natural o artificial, cuyas funciones básicas son: servir como faja de protección contra inundaciones y desbordamientos y conservar el recurso hidrológico; brindar estabilidad para los taludes laterales que conforman el cañón de la corriente natural; hacer posibles servidumbres de paso para la extensión de redes de servicios públicos y mantenimiento del cauce; proporcionar áreas ornamentales, de recreación y para senderos peatonales ecológicos.                                                                                               2. La dimensión de los retiros es variable, partiendo de un retiro mínimo de protección de diez (10) metros, medidos en proyección horizontal con relación al borde de aguas máximas periódicas de la corriente natural si se tienen registros hidrológicos o en su defecto con relación a los bordes superiores del canal natural (cauce y cañón) o artificial, hasta fajas máximas de treinta (30) metros. La definición y manejo de los retiros a corrientes naturales de agua se hará acorde con las disposiciones señaladas en el presente Plan Básico de Ordenamiento. Ver Plano Retiros a corrientes naturales de agua.</t>
+  </si>
+  <si>
+    <t>Alta tension</t>
+  </si>
+  <si>
+    <t>Retiro a Líneas de Alta Tensión: Debe consultar ante EPM la tensión de las líneas que cruzan el predio, para tener el retiro exacto de estas.</t>
   </si>
 </sst>
 </file>
@@ -306,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,6 +350,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,14 +636,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="114.28515625" customWidth="1"/>
+    <col min="2" max="2" width="178.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -681,17 +702,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+    <row r="8" spans="1:2" ht="257.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
